--- a/Assets/SDProject/DataTables/Xlsx/CardName.xlsx
+++ b/Assets/SDProject/DataTables/Xlsx/CardName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTables\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA284A1B-F516-4AEC-830D-21C7CD720D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAC00FC-5A09-4B1E-B9F2-E40C56C15991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2865" windowWidth="28800" windowHeight="15345" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,12 +60,6 @@
     <t>CardName_Base_Atk_Strike_01</t>
   </si>
   <si>
-    <t>CardName_Base_Atk_HeavyStrike_00</t>
-  </si>
-  <si>
-    <t>CardName_Base_Atk_HeavyStrike_01</t>
-  </si>
-  <si>
     <t>CardName_Def_Guard_00</t>
   </si>
   <si>
@@ -100,12 +94,6 @@
   </si>
   <si>
     <t>타격+</t>
-  </si>
-  <si>
-    <t>강타</t>
-  </si>
-  <si>
-    <t>강타+</t>
   </si>
   <si>
     <t>방어</t>
@@ -572,7 +560,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -603,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -620,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -676,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -690,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -718,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -774,39 +762,21 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
